--- a/Datos definitivos/Cuadrada.xlsx
+++ b/Datos definitivos/Cuadrada.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -423,322 +422,322 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="106"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-5</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,11 +1414,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="183666176"/>
-        <c:axId val="183667712"/>
+        <c:axId val="233692544"/>
+        <c:axId val="228586624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="183666176"/>
+        <c:axId val="233692544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9064"/>
@@ -1431,12 +1430,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183667712"/>
+        <c:crossAx val="228586624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183667712"/>
+        <c:axId val="228586624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,7 +1446,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183666176"/>
+        <c:crossAx val="233692544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1473,16 +1472,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1794,14 +1793,14 @@
   <dimension ref="A1:U106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B1">
         <v>43.02</v>
@@ -1816,7 +1815,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B2">
         <v>43.93</v>
@@ -1839,7 +1838,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B3">
         <v>45.79</v>
@@ -1858,7 +1857,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B4">
         <v>46.46</v>
@@ -1881,7 +1880,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B5">
         <v>47.47</v>
@@ -1900,7 +1899,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B6">
         <v>48.52</v>
@@ -1915,7 +1914,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B7">
         <v>48.57</v>
@@ -1930,7 +1929,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B8">
         <v>48.88</v>
@@ -1945,7 +1944,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B9">
         <v>48.93</v>
@@ -1960,7 +1959,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B10">
         <v>48.87</v>
@@ -1975,7 +1974,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B11">
         <v>48.68</v>
@@ -1990,7 +1989,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B12">
         <v>48.11</v>
@@ -2005,7 +2004,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B13">
         <v>48.01</v>
@@ -2020,7 +2019,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B14">
         <v>47.13</v>
@@ -2035,7 +2034,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B15">
         <v>47.03</v>
@@ -2050,7 +2049,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B16">
         <v>45.95</v>
@@ -2065,7 +2064,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B17">
         <v>45.43</v>
@@ -2080,7 +2079,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B18">
         <v>44.26</v>
@@ -2095,7 +2094,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B19">
         <v>43.8</v>
@@ -2110,7 +2109,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B20">
         <v>42.78</v>
@@ -2125,7 +2124,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B21">
         <v>41.48</v>
@@ -2140,7 +2139,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B22">
         <v>39.979999999999997</v>
@@ -2155,7 +2154,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B23">
         <v>38.729999999999997</v>
@@ -2170,7 +2169,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B24">
         <v>37.49</v>
@@ -2185,7 +2184,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B25">
         <v>36.25</v>
@@ -2200,7 +2199,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B26">
         <v>35.409999999999997</v>
@@ -2215,7 +2214,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B27">
         <v>33.78</v>
@@ -2230,7 +2229,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B28">
         <v>33.4</v>
@@ -2245,7 +2244,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B29">
         <v>32.06</v>
@@ -2260,7 +2259,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B30">
         <v>30.4</v>
@@ -2275,7 +2274,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B31">
         <v>29.26</v>
@@ -2290,7 +2289,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B32">
         <v>28.38</v>
@@ -2305,7 +2304,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B33">
         <v>27.51</v>
@@ -2320,7 +2319,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B34">
         <v>27.35</v>
@@ -2335,7 +2334,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B35">
         <v>26.77</v>
@@ -2350,7 +2349,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B36">
         <v>27.03</v>
@@ -2365,7 +2364,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B37">
         <v>26.51</v>
@@ -2380,7 +2379,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B38">
         <v>26.92</v>
@@ -2395,7 +2394,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B39">
         <v>27.68</v>
@@ -2410,7 +2409,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B40">
         <v>27.66</v>
@@ -2425,7 +2424,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B41">
         <v>28.35</v>
@@ -2440,7 +2439,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B42">
         <v>29.18</v>
@@ -2455,7 +2454,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B43">
         <v>30.36</v>
@@ -2470,7 +2469,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B44">
         <v>31.34</v>
@@ -2485,7 +2484,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B45">
         <v>31.96</v>
@@ -2500,7 +2499,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B46">
         <v>33.14</v>
@@ -2515,7 +2514,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B47">
         <v>33.97</v>
@@ -2530,7 +2529,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B48">
         <v>35.67</v>
@@ -2545,7 +2544,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B49">
         <v>36.51</v>
@@ -2560,7 +2559,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B50">
         <v>38.21</v>
@@ -2575,7 +2574,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B51">
         <v>39.04</v>
@@ -2590,7 +2589,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B52">
         <v>40.33</v>
@@ -2605,7 +2604,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B53">
         <v>41.53</v>
@@ -2620,7 +2619,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B54">
         <v>43.33</v>
@@ -2635,7 +2634,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B55">
         <v>44</v>
@@ -2650,7 +2649,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B56">
         <v>45.67</v>
@@ -2665,7 +2664,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B57">
         <v>45.72</v>
@@ -2680,7 +2679,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B58">
         <v>46.98</v>
@@ -2695,7 +2694,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B59">
         <v>47.37</v>
@@ -2710,7 +2709,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B60">
         <v>47.29</v>
@@ -2725,7 +2724,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B61">
         <v>47.58</v>
@@ -2740,7 +2739,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B62">
         <v>48.35</v>
@@ -2755,7 +2754,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B63">
         <v>47.42</v>
@@ -2770,7 +2769,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B64">
         <v>47.59</v>
@@ -2785,7 +2784,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B65">
         <v>46.94</v>
@@ -2800,7 +2799,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B66">
         <v>46.96</v>
@@ -2815,7 +2814,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B67">
         <v>46.91</v>
@@ -2830,7 +2829,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B68">
         <v>46</v>
@@ -2845,7 +2844,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B69">
         <v>44.97</v>
@@ -2860,7 +2859,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B70">
         <v>44.67</v>
@@ -2875,7 +2874,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B71">
         <v>43.54</v>
@@ -2890,7 +2889,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B72">
         <v>43.04</v>
@@ -2905,7 +2904,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B73">
         <v>41.92</v>
@@ -2920,7 +2919,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B74">
         <v>40.43</v>
@@ -2935,7 +2934,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B75">
         <v>39.380000000000003</v>
@@ -2950,7 +2949,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B76">
         <v>38.21</v>
@@ -2965,7 +2964,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B77">
         <v>36.96</v>
@@ -2980,7 +2979,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B78">
         <v>35.72</v>
@@ -2995,7 +2994,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B79">
         <v>34.47</v>
@@ -3010,7 +3009,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="B80">
         <v>33.18</v>
@@ -3025,7 +3024,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B81">
         <v>32.42</v>
@@ -3040,7 +3039,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B82">
         <v>30.96</v>
@@ -3055,7 +3054,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B83">
         <v>29.62</v>
@@ -3070,7 +3069,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B84">
         <v>28.42</v>
@@ -3085,7 +3084,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B85">
         <v>27.51</v>
@@ -3100,7 +3099,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B86">
         <v>26.68</v>
@@ -3115,7 +3114,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B87">
         <v>26.49</v>
@@ -3130,7 +3129,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B88">
         <v>26.19</v>
@@ -3145,7 +3144,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B89">
         <v>25.93</v>
@@ -3160,7 +3159,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B90">
         <v>25.98</v>
@@ -3175,7 +3174,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B91">
         <v>25.93</v>
@@ -3190,7 +3189,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B92">
         <v>26.29</v>
@@ -3205,7 +3204,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B93">
         <v>27.08</v>
@@ -3220,7 +3219,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B94">
         <v>27.59</v>
@@ -3235,7 +3234,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B95">
         <v>27.71</v>
@@ -3250,7 +3249,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B96">
         <v>28.44</v>
@@ -3265,7 +3264,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B97">
         <v>29.36</v>
@@ -3280,7 +3279,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B98">
         <v>30.19</v>
@@ -3295,7 +3294,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B99">
         <v>31.17</v>
@@ -3310,7 +3309,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B100">
         <v>32.299999999999997</v>
@@ -3325,7 +3324,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B101">
         <v>33.450000000000003</v>
@@ -3340,7 +3339,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B102">
         <v>34.31</v>
@@ -3355,7 +3354,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B103">
         <v>35.979999999999997</v>
@@ -3370,7 +3369,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B104">
         <v>37.369999999999997</v>
@@ -3385,7 +3384,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B105">
         <v>38.35</v>
@@ -3400,7 +3399,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B106">
         <v>40</v>
@@ -3411,7 +3410,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
